--- a/CustomLocalization/Localization/RogueTech/RU/RogueTech Core/Contracts/capturebase/8/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/RogueTech Core/Contracts/capturebase/8/LocalizationDef.xlsx
@@ -178,7 +178,7 @@
     <t>Destroy the {TEAM_TAR.FactionDef.Demonym} Defenders</t>
   </si>
   <si>
-    <t>Уничтожьте защитников от {TEAM_TAR.FactionDef.Demonym}</t>
+    <t>Уничтожьте защитников от {TEAM_TAR.FactionDef.Name}</t>
   </si>
   <si>
     <t>CaptureBase_DataPiracy.objectiveList2.description</t>
@@ -247,7 +247,7 @@
     <t>Destroy the {TEAM_TAR.FactionDef.Demonym} Reinforcements</t>
   </si>
   <si>
-    <t>Уничтожьте подкрепления от {TEAM_TAR.FactionDef.Demonym}</t>
+    <t>Уничтожьте подкрепления от {TEAM_TAR.FactionDef.Name}</t>
   </si>
   <si>
     <t>CaptureBase_DataPiracy.objectiveList6.description</t>
@@ -271,7 +271,7 @@
     <t>We've been monitoring communications traffic on {TGT_SYSTEM.name}, and discerned a pattern. There's a well-defended {TEAM_TAR.FactionDef.Demonym} base that we suspect of being a secure data storage facility. We'd like your team to land, capture the base, and take a complete image of the contents of their databases. Once the {TEAM_TAR.FactionDef.Demonym} forces realize what we're doing, they'll launch a counteroffensive, so we'll need you to stay in the field until the download is complete.</t>
   </si>
   <si>
-    <t>Мы прослушивали переговоры на {TGT_SYSTEM.name} и обнаружили закономерность. Есть хорошо защищенная база {TEAM_TAR.FactionDef.Demonym}, которая, мы подозреваем, является хранилищем баз данных. Мы бы хотели, чтобы ваша команда приземлилась, взяла под контроль здание и сделала полную копию образа содержимого их баз данных. Как только силы {TEAM_TAR.FactionDef.Demonym} поймут, чем вы заняты, они начнут контр наступление, поэтому нам нужно, чтобы вы оставались удерживали позиции до завершения загрузки.</t>
+    <t>Мы прослушивали переговоры на {TGT_SYSTEM.name} и обнаружили закономерность. Есть хорошо защищенная база {TEAM_TAR.FactionDef.Name}, которая, мы подозреваем, является хранилищем баз данных. Мы бы хотели, чтобы ваша команда приземлилась, взяла под контроль здание и сделала полную копию образа содержимого их баз данных. Как только силы {TEAM_TAR.FactionDef.Name} поймут, чем вы заняты, они начнут контр наступление, поэтому нам нужно, чтобы вы оставались удерживали позиции до завершения загрузки.</t>
   </si>
   <si>
     <t>CaptureBase_DataPiracy_Alt.contractName</t>
@@ -406,7 +406,7 @@
     <t>We're here to capture the {TEAM_TAR.FactionDef.Demonym} research station.</t>
   </si>
   <si>
-    <t>Мы здесь, чтобы захватить исследовательскую станцию {TEAM_TAR.FactionDef.Demonym}.</t>
+    <t>Мы здесь, чтобы захватить исследовательскую станцию {TEAM_TAR.FactionDef.Name}.</t>
   </si>
   <si>
     <t>CaptureBase_FormOfFlattery_Hard.dialogueList0.dialogueContent1.words</t>
@@ -535,7 +535,7 @@
     <t>Destroy the {TEAM_TAR.FactionDef.Demonym} Forces</t>
   </si>
   <si>
-    <t>Уничтожить {TEAM_TAR.FactionDef.Demonym} вооруженные силы.</t>
+    <t>Уничтожить {TEAM_TAR.FactionDef.Name} вооруженные силы.</t>
   </si>
   <si>
     <t>CaptureBase_FormOfFlattery_Hard.objectiveList2.title</t>
@@ -598,7 +598,7 @@
     <t>We have long suspected that there is a {TEAM_TAR.FactionDef.Demonym} research station hidden in the {TGT_SYSTEM.name} system, and we've finally gotten wind of its possible location. We need a few brave, and plausibly deniable, mercenaries to secure the location for a dropship extraction of any valuable scientific personnel.</t>
   </si>
   <si>
-    <t xml:space="preserve">Мы давно подозревали, что существует научно-исследовательская станция {TEAM_TAR.FactionDef.Demonym}, скрытая в системе {TGT_SYSTEM.name}, и мы наконец обнаружили координаты ее возможного местоположения. Нам нужно несколько смелых и не задающих вопросов наёмников, чтобы зачистить территорию для посадки дропшипа, который заберёт весь ценный научный персонал. </t>
+    <t xml:space="preserve">Мы давно подозревали, что существует научно-исследовательская станция {TEAM_TAR.FactionDef.Name}, скрытая в системе {TGT_SYSTEM.name}, и мы наконец обнаружили координаты ее возможного местоположения. Нам нужно несколько смелых и не задающих вопросов наёмников, чтобы зачистить территорию для посадки дропшипа, который заберёт весь ценный научный персонал. </t>
   </si>
   <si>
     <t>CaptureBase_Lodgement.contractName</t>
@@ -643,7 +643,7 @@
     <t>We're in control of the area, Commander. I'll signal to the {TEAM_EMP.FactionDef.Demonym} forces to begin their landing. Good work.</t>
   </si>
   <si>
-    <t>Район под нашим контролем, командир. Я подаю сигнал войскам {TEAM_EMP.FactionDef.Demonym} к высадке. Хорошая работа.</t>
+    <t>Район под нашим контролем, командир. Я подаю сигнал войскам {TEAM_EMP.FactionDef.Name} к высадке. Хорошая работа.</t>
   </si>
   <si>
     <t>CaptureBase_Lodgement.dialogueList2.dialogueContent0.words</t>
@@ -751,7 +751,7 @@
     <t>Commander, we're preparing a series of operations on {TGT_SYSTEM.name}. However, before we can begin, we need a secure lodgement to bring military units and supplies down to the surface. We've identified a {TEAM_TAR.FactionDef.Demonym} military facility that will be ideal for our purposes. We need you to land a strike force, capture the facility, and hold it until we can bring down our people to secure the location. Because this operation is covert and on an extremely tight schedule, you'll be inserting with no topographical intel.</t>
   </si>
   <si>
-    <t>Командир, мы готовим серию операций на {TGT_SYSTEM.name}. Однако прежде, чем мы сможем начать, нам нужна надёжная база, чтобы развернуть вооруженные силы и снабжение. Мы определили военный объект {TEAM_TAR.FactionDef.Demonym}, который идеально подходит для наших целей. Нам нужно, чтобы вы высадили ударную группу, захватили объект и удерживали его, пока мы подтягиваем наших людей, чтобы обезопасить зону. Поскольку эта операция является скрытой и сжатой по срокам, вам придется высаживаться без данных топографической разведки.</t>
+    <t>Командир, мы готовим серию операций на {TGT_SYSTEM.name}. Однако прежде, чем мы сможем начать, нам нужна надёжная база, чтобы развернуть вооруженные силы и снабжение. Мы определили военный объект {TEAM_TAR.FactionDef.Name}, который идеально подходит для наших целей. Нам нужно, чтобы вы высадили ударную группу, захватили объект и удерживали его, пока мы подтягиваем наших людей, чтобы обезопасить зону. Поскольку эта операция является скрытой и сжатой по срокам, вам придется высаживаться без данных топографической разведки.</t>
   </si>
   <si>
     <t>CaptureBase_ManufacturingFacility_Hard.contractName</t>
@@ -880,7 +880,7 @@
     <t>Destroy the {TEAM_TAR.FactionDef.Demonym} Garrison</t>
   </si>
   <si>
-    <t>Уничтожить {TEAM_TAR.FactionDef.Demonym} гарнизон</t>
+    <t>Уничтожить {TEAM_TAR.FactionDef.Name} гарнизон</t>
   </si>
   <si>
     <t>CaptureBase_ManufacturingFacility_Hard.objectiveList2.title</t>
@@ -925,7 +925,7 @@
     <t>We've discovered that {TEAM_TAR.FactionDef.Name} has reactivated an old manufacturing facility in this system. To maintain the balance of power in this system, {TEAM_EMP.FactionDef.Name} needs to capture this facility. You'll make a surgical strike, occupy the base, and hold it until {TEAM_EMP.FactionDef.Demonym} forces can arrive to take control.</t>
   </si>
   <si>
-    <t>Мы обнаружили, что {TEAM_TAR.FactionDef.Name} перезапустили старый производственный комплекс в этой системе. Чтобы сохранить баланс сил, {TEAM_EMP.FactionDef.Name} должны захватить этот объект. Вы нанесете хирургический удар, займете базу и будете удерживать ее до прибытия сил {TEAM_EMP.FactionDef.Demonym}.</t>
+    <t>Мы обнаружили, что {TEAM_TAR.FactionDef.Name} перезапустили старый производственный комплекс в этой системе. Чтобы сохранить баланс сил, {TEAM_EMP.FactionDef.Name} должны захватить этот объект. Вы нанесете хирургический удар, займете базу и будете удерживать ее до прибытия сил {TEAM_EMP.FactionDef.Name}.</t>
   </si>
   <si>
     <t>CaptureBase_MechFactory.contractName</t>
@@ -970,7 +970,7 @@
     <t>The factory is under control, Commander, and {TEAM_EMP.FactionDef.Demonym} forces are setting up defenses. Good work.</t>
   </si>
   <si>
-    <t>Фабрика находится под контролем, командир, и силы {TEAM_EMP.FactionDef.Demonym} уже устанавливают оборонительный периметр. Хорошая работа.</t>
+    <t>Фабрика находится под контролем, командир, и силы {TEAM_EMP.FactionDef.Name} уже устанавливают оборонительный периметр. Хорошая работа.</t>
   </si>
   <si>
     <t>CaptureBase_MechFactory.dialogueList2.dialogueContent0.words</t>
@@ -1021,7 +1021,7 @@
     <t>We're getting a report that additional {TEAM_TAR.FactionDef.Demonym} reinforcements have been spotted, so expect more contact.</t>
   </si>
   <si>
-    <t>Мы получаем информацию о дополнительных подкреплениях {TEAM_TAR.FactionDef.Demonym}, так что ожидайте ещё гостей.</t>
+    <t>Мы получаем информацию о дополнительных подкреплениях {TEAM_TAR.FactionDef.Name}, так что ожидайте ещё гостей.</t>
   </si>
   <si>
     <t>CaptureBase_MechFactory.longDescription</t>
@@ -1090,7 +1090,7 @@
     <t>We picked up a coded transmission from the surface of {TGT_SYSTEM.name}: {TEAM_EMP.FactionDef.Demonym} scouts report a previously unknown manufacturing plant has been activated by {TEAM_TAR.FactionDef.Demonym} forces, and they're broadcasting what we believe might be pre-war blueprints to an unknown recipient somewhere in the system. We need you to move in and capture that facility, intact, and protect it while we mobilize a garrison.</t>
   </si>
   <si>
-    <t>Мы перехватили закодированную передачу с поверхности {TGT_SYSTEM.name}: разведчики {TEAM_EMP.FactionDef.Demonym} сообщают, что ранее неизвестная производственная фабрика была активирована силами {TEAM_TAR.FactionDef.Demonym} и они передают то, что, по нашему мнению, может быть довоенными чертежами неизвестному получателю где-то в системе. Нам нужно, чтобы вы выдвинулись, захватили объект в целости и сохранности, пока мы мобилизуем гарнизон.</t>
+    <t>Мы перехватили закодированную передачу с поверхности {TGT_SYSTEM.name}: разведчики {TEAM_EMP.FactionDef.Name} сообщают, что ранее неизвестная производственная фабрика была активирована силами {TEAM_TAR.FactionDef.Name} и они передают то, что, по нашему мнению, может быть довоенными чертежами неизвестному получателю где-то в системе. Нам нужно, чтобы вы выдвинулись, захватили объект в целости и сохранности, пока мы мобилизуем гарнизон.</t>
   </si>
   <si>
     <t>CaptureBase_Pirate_Plunder.contractName</t>
@@ -1282,7 +1282,7 @@
     <t>We've been following this shipment of Spazz that the {TEAM_TAR.FactionDef.Demonym} authorities here on {TGT_SYSTEM.name} intercepted. You'd think that, given all the things they say about Spazz, they'd have torched the stuff already. But instead they've locked it up in a secure depot. I'm sure they won't mind if we take that stuff off their hands. We have much better uses for it than just blowing it all up.</t>
   </si>
   <si>
-    <t>Мы отслеживали поставку спазза, которую местные власти {TEAM_TAR.FactionDef.Demonym} перехватили здесь на {TGT_SYSTEM.name}. Можно подумать, что, учитывая всё то, что правительство говорит о спаззе, они уже давно сожгли его. Но вместо этого они спрятали его в надежном складе. Я уверен, что они не будут возражать, если мы отберём его у них из рук. У нас есть для него гораздо лучшее применение, чем просто уничтожить.</t>
+    <t>Мы отслеживали поставку спазза, которую местные власти {TEAM_TAR.FactionDef.Name} перехватили здесь на {TGT_SYSTEM.name}. Можно подумать, что, учитывая всё то, что правительство говорит о спаззе, они уже давно сожгли его. Но вместо этого они спрятали его в надежном складе. Я уверен, что они не будут возражать, если мы отберём его у них из рук. У нас есть для него гораздо лучшее применение, чем просто уничтожить.</t>
   </si>
   <si>
     <t>CaptureBase_ProfessionalFacilityManagement.contractName</t>
@@ -1300,7 +1300,7 @@
     <t>Commander, we're in the AO. I'm seeing those turrets we were promised, but no sign of the {TEAM_TAR.FactionDef.Demonym} team that's supposed to be here.</t>
   </si>
   <si>
-    <t>Командир, мы на позиции. Я вижу турели, о которых нас предупреждали, но нет никаких признаков команды {TEAM_TAR.FactionDef.Demonym}. Они могут быть где-то здесь.</t>
+    <t>Командир, мы на позиции. Я вижу турели, о которых нас предупреждали, но нет никаких признаков команды {TEAM_TAR.FactionDef.Name}. Они могут быть где-то здесь.</t>
   </si>
   <si>
     <t>CaptureBase_ProfessionalFacilityManagement.dialogueList0.dialogueContent1.words</t>
@@ -1486,7 +1486,7 @@
     <t>Fifteen years ago we lost track of a facility here on {TGT_SYSTEM.name}, and {TEAM_EMP.FactionDef.Demonym} intelligence believed it had been permanently shut down. A month ago, an orbiting spy satellite picked up signs that the facility had been brought back online. Our current guess is that a {TEAM_TAR.FactionDef.Demonym} team was dispatched to bring the base back up to operational capacity. We'd rather not have sensitive radar backed by armed turrets and flak batteries aimed at the skies of {TGT_SYSTEM.name}. We'd like you to clear their team out and hold the facility while our own people land to scour it for useful intel.</t>
   </si>
   <si>
-    <t>Пятнадцать лет назад мы потеряли из виду объект, здесь на {TGT_SYSTEM.name}, и разведка {TEAM_EMP.FactionDef.Demonym} полагала, что он был окончательно отключен. Месяц назад орбитальный спутник-шпион обнаружил признаки того, что объект был возвращен в строй. В настоящее время мы предполагаем, что туда была направлена команда из {TEAM_TAR.FactionDef.Demonym}, чтобы вернуть базу в рабочее состояние. Мы бы предпочли не иметь рядом чувствительного радара поддерживаемого вооруженными турелями и зенитными батареями, направленными на небо {TGT_SYSTEM.name}. Мы бы хотели, чтобы вы уничтожили их команду и удерживали объект, пока наши люди не приземлятся, чтобы поискать полезную информацию.</t>
+    <t>Пятнадцать лет назад мы потеряли из виду объект, здесь на {TGT_SYSTEM.name}, и разведка {TEAM_EMP.FactionDef.Name} полагала, что он был окончательно отключен. Месяц назад орбитальный спутник-шпион обнаружил признаки того, что объект был возвращен в строй. В настоящее время мы предполагаем, что туда была направлена команда из {TEAM_TAR.FactionDef.Name}, чтобы вернуть базу в рабочее состояние. Мы бы предпочли не иметь рядом чувствительного радара поддерживаемого вооруженными турелями и зенитными батареями, направленными на небо {TGT_SYSTEM.name}. Мы бы хотели, чтобы вы уничтожили их команду и удерживали объект, пока наши люди не приземлятся, чтобы поискать полезную информацию.</t>
   </si>
   <si>
     <t>CaptureBase_PullingLinchpins.contractName</t>
@@ -1504,7 +1504,7 @@
     <t>We're here to capture the {TEAM_TAR.FactionDef.Demonym} military Outpost.</t>
   </si>
   <si>
-    <t>Мы здесь, чтобы захватить военный аванпост {TEAM_TAR.FactionDef.Demonym}.</t>
+    <t>Мы здесь, чтобы захватить военный аванпост {TEAM_TAR.FactionDef.Name}.</t>
   </si>
   <si>
     <t>CaptureBase_PullingLinchpins.dialogueList0.dialogueContent1.words</t>
@@ -1597,7 +1597,7 @@
     <t>Commander, the {TEAM_EMP.FactionDef.Demonym} plan is sound, as long as we're okay with intentionally setting up an ambush on ourselves.</t>
   </si>
   <si>
-    <t>Командир, план {TEAM_EMP.FactionDef.Demonym} такой здравый, мы конечно не против намеренно устроить засаду на нас самих.</t>
+    <t>Командир, план {TEAM_EMP.FactionDef.Name} такой здравый, мы конечно не против намеренно устроить засаду на нас самих.</t>
   </si>
   <si>
     <t>CaptureBase_PullingLinchpins.objectiveList0.title</t>
@@ -1651,7 +1651,7 @@
     <t>We've recently discovered a {TEAM_TAR.FactionDef.Demonym} military outpost in an extremely inconvenient location, strangling trade and movement for our personnel in the area. Your mission: eliminate enemy defenses, then capture and hold the base long enough for {TEAM_EMP.FactionDef.Demonym} forces to take possession. We'll support your action by drawing off some of the defenders ahead of time, so if these units retreat to the base, they'll already be weakened by our troops.</t>
   </si>
   <si>
-    <t>Недавно мы обнаружили военный аванпост {TEAM_TAR.FactionDef.Demonym} в крайне неудобном месте, мешающий нашей торговле и передвижению персонала в этом районе. Ваша задача: уничтожить оборону противника, затем захватить и удерживать базу достаточно долго, чтобы вооруженные силы {TEAM_EMP.FactionDef.Demonym} завладели ею. Мы поддержим ваши действия, заблаговременно уведя подальше часть охраны, поэтому, если эти отряды врнутся на базу, они уже будут ослаблены нашими войсками.</t>
+    <t>Недавно мы обнаружили военный аванпост {TEAM_TAR.FactionDef.Name} в крайне неудобном месте, мешающий нашей торговле и передвижению персонала в этом районе. Ваша задача: уничтожить оборону противника, затем захватить и удерживать базу достаточно долго, чтобы вооруженные силы {TEAM_EMP.FactionDef.Name} завладели ею. Мы поддержим ваши действия, заблаговременно уведя подальше часть охраны, поэтому, если эти отряды врнутся на базу, они уже будут ослаблены нашими войсками.</t>
   </si>
   <si>
     <t>CaptureBase_StealThePrototype.contractName</t>
@@ -1801,7 +1801,7 @@
     <t>We've learned that {TEAM_TAR.FactionDef.Name} here in {TGT_SYSTEM.name} has been busy working on a new water filtration technology, which is both extremely valuable and likely to shift the balance of power in the region by opening up more worlds for colonization. We've discovered where they're working on the latest prototype. We know that they are monitoring the location of our own 'Mechs in the area, so we need a mercenary lance to make the vanguard assault and catch them by surprise. We'll then take over the facility with {TEAM_EMP.FactionDef.Demonym} forces.</t>
   </si>
   <si>
-    <t xml:space="preserve">Мы узнали, что {TEAM_TAR.FactionDef.Name} здесь, на {TGT_SYSTEM.name}, была занята работой над новой технологией фильтрации воды, которая одновременно чрезвычайно ценна и может изменить баланс сил в регионе, открыв больше миров для колонизации. Мы обнаружили где они работают над последним прототипом. Мы знаем, что они следят за местонахождением наших собственных мехов в этом районе, поэтому нам нужен отряд наемников, чтобы атаковать авангард и застать их со спущенными штанами. Затем мы захватим объект вооруженными силами {TEAM_EMP.FactionDef.Demonym}. </t>
+    <t xml:space="preserve">Мы узнали, что {TEAM_TAR.FactionDef.Name} здесь, на {TGT_SYSTEM.name}, была занята работой над новой технологией фильтрации воды, которая одновременно чрезвычайно ценна и может изменить баланс сил в регионе, открыв больше миров для колонизации. Мы обнаружили где они работают над последним прототипом. Мы знаем, что они следят за местонахождением наших собственных мехов в этом районе, поэтому нам нужен отряд наемников, чтобы атаковать авангард и застать их со спущенными штанами. Затем мы захватим объект вооруженными силами {TEAM_EMP.FactionDef.Name}. </t>
   </si>
   <si>
     <t>CaptureBase_SurveillanceOutpost_Hard.contractName</t>
@@ -1819,7 +1819,7 @@
     <t>These are the coordinates we received from {TEAM_EMP.FactionDef.Demonym} intelligence.</t>
   </si>
   <si>
-    <t>Это координаты, что дала разведка {TEAM_EMP.FactionDef.Demonym}.</t>
+    <t>Это координаты, что дала разведка {TEAM_EMP.FactionDef.Name}.</t>
   </si>
   <si>
     <t>CaptureBase_SurveillanceOutpost_Hard.dialogueList0.dialogueContent1.words</t>
@@ -1981,7 +1981,7 @@
     <t>Unremarkable, empty systems like this one are the perfect location for covert intelligence gathering operations. We believe there's a {TEAM_TAR.FactionDef.Demonym} facility here on {TGT_SYSTEM.Name} doing exactly that. Monitoring the pattern of DropShips making landings on the planet has led {TEAM_EMP.FactionDef.Demonym} analysts to a remote, apparently empty facility. Until just a few days ago, when we picked up the unmasked signature of a 'Mech's fusion engine powering up. That facility isn't empty, and we want the data stored there.</t>
   </si>
   <si>
-    <t>Ничем не примечательные, пустые звёздные системы, как эта, являются идеальным местом для скрытых операций по сбору информации. Мы полагаем, что в {TGT_SYSTEM.Name} есть здание {TEAM_TAR.FactionDef.Demonym}, которое именно этим и занимается. Отслеживая график посадок дропшипов на планету, аналитики {TEAM_EMP.FactionDef.Demonym} наткнулись на отдалённое заброшенное здание. Или оно считалось таковым, пока, пару дней назад, там не засекли явную сигнатуру включения термоядерного двигателя меха. Этот объект точно не пуст и мы хотим данные, что хранятся там.</t>
+    <t>Ничем не примечательные, пустые звёздные системы, как эта, являются идеальным местом для скрытых операций по сбору информации. Мы полагаем, что в {TGT_SYSTEM.Name} есть здание {TEAM_TAR.FactionDef.Name}, которое именно этим и занимается. Отслеживая график посадок дропшипов на планету, аналитики {TEAM_EMP.FactionDef.Name} наткнулись на отдалённое заброшенное здание. Или оно считалось таковым, пока, пару дней назад, там не засекли явную сигнатуру включения термоядерного двигателя меха. Этот объект точно не пуст и мы хотим данные, что хранятся там.</t>
   </si>
   <si>
     <t>CaptureBase_SyntheticPlague.contractName</t>
@@ -2167,7 +2167,7 @@
     <t>We've got a developing situation, Commander, and we need immediate aid from a reliable mercenary company. A covert {TEAM_TAR.FactionDef.Demonym} team was investigating reports of a cache of bioweapons on an otherwise abandoned world. We've tracked down four of these caches in the Periphery over the last 20 years, and disposed of them safely. The team was about to signal for an extraction when their signal went dead. We have reason to believe that {TEAM_TAR.FactionDef.Demonym} forces have taken control of the cache site, and eliminated our covert team. We need you to take that site and signal our disposal team.</t>
   </si>
   <si>
-    <t>У нас непростая ситуация, командир, и нам нужна срочная помощь надежных наемников. Наша тайная группа от {TEAM_TAR.FactionDef.Demonym} изучала отчёты о тайнике с биологическим оружием в заброшенном мире. Мы отследили четыре из этих тайников на Периферии за последние 20 лет и благополучно избавились от них. Группа уже подавала сигнал об эвакуации, когда он пропал. У нас есть основания полагать, что силы {TEAM_TAR.FactionDef.Demonym} взяли под контроль тайник и устранили нашу группу. Нам нужно, чтобы вы захватили это место и подали сигнал нашей группе зачистки.</t>
+    <t>У нас непростая ситуация, командир, и нам нужна срочная помощь надежных наемников. Наша тайная группа от {TEAM_TAR.FactionDef.Name} изучала отчёты о тайнике с биологическим оружием в заброшенном мире. Мы отследили четыре из этих тайников на Периферии за последние 20 лет и благополучно избавились от них. Группа уже подавала сигнал об эвакуации, когда он пропал. У нас есть основания полагать, что силы {TEAM_TAR.FactionDef.Name} взяли под контроль тайник и устранили нашу группу. Нам нужно, чтобы вы захватили это место и подали сигнал нашей группе зачистки.</t>
   </si>
 </sst>
 </file>
@@ -2504,8 +2504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D342"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C296" sqref="C296"/>
+    <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
+      <selection activeCell="C314" sqref="C314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2758,7 +2758,7 @@
       <c r="B18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="5" t="s">
         <v>54</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -2870,7 +2870,7 @@
       <c r="B26" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -2912,7 +2912,7 @@
       <c r="B29" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -3192,7 +3192,7 @@
       <c r="B49" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="5" t="s">
         <v>54</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -3304,7 +3304,7 @@
       <c r="B57" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D57" s="2" t="s">
@@ -3346,7 +3346,7 @@
       <c r="B60" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D60" s="2" t="s">
@@ -3374,7 +3374,7 @@
       <c r="B62" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="5" t="s">
         <v>130</v>
       </c>
       <c r="D62" s="2" t="s">
@@ -3612,7 +3612,7 @@
       <c r="B79" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="5" t="s">
         <v>173</v>
       </c>
       <c r="D79" s="2" t="s">
@@ -3696,7 +3696,7 @@
       <c r="B85" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D85" s="2" t="s">
@@ -3724,7 +3724,7 @@
       <c r="B87" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="5" t="s">
         <v>194</v>
       </c>
       <c r="D87" s="2" t="s">
@@ -3794,7 +3794,7 @@
       <c r="B92" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="5" t="s">
         <v>209</v>
       </c>
       <c r="D92" s="2" t="s">
@@ -3976,7 +3976,7 @@
       <c r="B105" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" s="5" t="s">
         <v>54</v>
       </c>
       <c r="D105" s="2" t="s">
@@ -4088,7 +4088,7 @@
       <c r="B113" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C113" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D113" s="2" t="s">
@@ -4130,7 +4130,7 @@
       <c r="B116" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C116" s="5" t="s">
         <v>245</v>
       </c>
       <c r="D116" s="2" t="s">
@@ -4382,7 +4382,7 @@
       <c r="B134" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C134" s="5" t="s">
         <v>288</v>
       </c>
       <c r="D134" s="2" t="s">
@@ -4466,7 +4466,7 @@
       <c r="B140" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="C140" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D140" s="2" t="s">
@@ -4494,7 +4494,7 @@
       <c r="B142" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="C142" s="5" t="s">
         <v>303</v>
       </c>
       <c r="D142" s="2" t="s">
@@ -4564,7 +4564,7 @@
       <c r="B147" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C147" s="5" t="s">
         <v>318</v>
       </c>
       <c r="D147" s="2" t="s">
@@ -4690,7 +4690,7 @@
       <c r="B156" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="C156" s="5" t="s">
         <v>335</v>
       </c>
       <c r="D156" s="2" t="s">
@@ -4816,7 +4816,7 @@
       <c r="B165" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C165" s="3" t="s">
+      <c r="C165" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D165" s="2" t="s">
@@ -4844,7 +4844,7 @@
       <c r="B167" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="C167" s="5" t="s">
         <v>358</v>
       </c>
       <c r="D167" s="2" t="s">
@@ -5264,7 +5264,7 @@
       <c r="B197" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="C197" s="3" t="s">
+      <c r="C197" s="5" t="s">
         <v>422</v>
       </c>
       <c r="D197" s="2" t="s">
@@ -5292,7 +5292,7 @@
       <c r="B199" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="C199" s="4" t="s">
+      <c r="C199" s="5" t="s">
         <v>428</v>
       </c>
       <c r="D199" s="2" t="s">
@@ -5726,7 +5726,7 @@
       <c r="B230" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="C230" s="3" t="s">
+      <c r="C230" s="5" t="s">
         <v>490</v>
       </c>
       <c r="D230" s="2" t="s">
@@ -5754,7 +5754,7 @@
       <c r="B232" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="C232" s="3" t="s">
+      <c r="C232" s="5" t="s">
         <v>496</v>
       </c>
       <c r="D232" s="2" t="s">
@@ -5964,7 +5964,7 @@
       <c r="B247" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="C247" s="3" t="s">
+      <c r="C247" s="5" t="s">
         <v>527</v>
       </c>
       <c r="D247" s="2" t="s">
@@ -5992,7 +5992,7 @@
       <c r="B249" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C249" s="2" t="s">
+      <c r="C249" s="5" t="s">
         <v>173</v>
       </c>
       <c r="D249" s="2" t="s">
@@ -6076,7 +6076,7 @@
       <c r="B255" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C255" s="3" t="s">
+      <c r="C255" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D255" s="2" t="s">
@@ -6104,7 +6104,7 @@
       <c r="B257" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="C257" s="3" t="s">
+      <c r="C257" s="5" t="s">
         <v>545</v>
       </c>
       <c r="D257" s="2" t="s">
@@ -6426,7 +6426,7 @@
       <c r="B280" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C280" s="3" t="s">
+      <c r="C280" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D280" s="2" t="s">
@@ -6454,7 +6454,7 @@
       <c r="B282" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="C282" s="3" t="s">
+      <c r="C282" s="5" t="s">
         <v>595</v>
       </c>
       <c r="D282" s="2" t="s">
@@ -6482,7 +6482,7 @@
       <c r="B284" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="C284" s="3" t="s">
+      <c r="C284" s="5" t="s">
         <v>601</v>
       </c>
       <c r="D284" s="2" t="s">
@@ -6832,7 +6832,7 @@
       <c r="B309" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C309" s="3" t="s">
+      <c r="C309" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D309" s="2" t="s">
@@ -6874,7 +6874,7 @@
       <c r="B312" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="C312" s="3" t="s">
+      <c r="C312" s="5" t="s">
         <v>655</v>
       </c>
       <c r="D312" s="2" t="s">
@@ -7252,7 +7252,7 @@
       <c r="B339" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C339" s="3" t="s">
+      <c r="C339" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D339" s="2" t="s">
@@ -7294,7 +7294,7 @@
       <c r="B342" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="C342" s="3" t="s">
+      <c r="C342" s="5" t="s">
         <v>717</v>
       </c>
       <c r="D342" s="2" t="s">

--- a/CustomLocalization/Localization/RogueTech/RU/RogueTech Core/Contracts/capturebase/8/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/RogueTech Core/Contracts/capturebase/8/LocalizationDef.xlsx
@@ -2505,7 +2505,7 @@
   <dimension ref="A1:D342"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
-      <selection activeCell="C314" sqref="C314"/>
+      <selection activeCell="C303" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
